--- a/FollowUserDirectMessage/userDetails.xlsx
+++ b/FollowUserDirectMessage/userDetails.xlsx
@@ -27,12 +27,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>Crazypriyalovely07</t>
-  </si>
-  <si>
-    <t>Bot@12345</t>
-  </si>
-  <si>
     <t>sendMessage</t>
   </si>
   <si>
@@ -42,7 +36,13 @@
     <t>Hello! Thanks for following me on Instagram.</t>
   </si>
   <si>
-    <t>www.google.com</t>
+    <t>Mike@2023</t>
+  </si>
+  <si>
+    <t>pytourist</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/accounts/onetap/?next=%2F</t>
   </si>
 </sst>
 </file>
@@ -374,7 +374,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,7 +390,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -398,20 +398,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
